--- a/insumos/produccion_petroleo_1999-2019_t1.xlsx
+++ b/insumos/produccion_petroleo_1999-2019_t1.xlsx
@@ -66,9 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -136,7 +137,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -146,6 +147,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,7 +174,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,25 +224,25 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>360864.7268</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>187489.6</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>1235.99</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>7228918.8042</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>3958267.685</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <v>11736776.806</v>
       </c>
     </row>
@@ -248,25 +253,25 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>553227.858</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>251419.65</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>1136.01</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>5960630.202</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>4076508.527</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>10842922.247</v>
       </c>
     </row>
@@ -277,25 +282,25 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>389851.281</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>247734.893</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>3727.54</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>6141127.17</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>3845043.089</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <v>10627483.973</v>
       </c>
     </row>
@@ -306,25 +311,25 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>605792.629</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>233176.18</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>6259720.14700001</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>3824634.952</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
         <v>10923323.908</v>
       </c>
     </row>
@@ -335,25 +340,25 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>581190.374</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>263062.73</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>6002111.77099999</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>3765950.926</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>10612315.801</v>
       </c>
     </row>
@@ -364,25 +369,25 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>517254.787</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>307386.17</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>5562139.08039999</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>3698449.315</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
         <v>10085229.3524</v>
       </c>
     </row>
@@ -393,25 +398,25 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>566438.3278</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>272251.24209</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>5256236.09326</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>3606461.90498</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
         <v>9701387.56813001</v>
       </c>
     </row>
@@ -422,25 +427,25 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>502991.487</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>273619.936</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>5126186.90999999</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>3346495.737</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
         <v>9249294.06999999</v>
       </c>
     </row>
@@ -451,25 +456,25 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>507507.121</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>260453.923</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
         <v>4845275.297</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>3761784.116</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="n">
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
         <v>9375020.457</v>
       </c>
     </row>
@@ -480,25 +485,25 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>469538.554</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>287101.79</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>415</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>5003973.69529999</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <v>3717727.846</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
         <v>9478756.88529999</v>
       </c>
     </row>
@@ -509,25 +514,25 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>248057.666</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>302800.597</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>21103.88</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>5008030.4121</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <v>3638919.593</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="n">
+      <c r="H12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="n">
         <v>9218912.1481</v>
       </c>
     </row>
@@ -538,25 +543,25 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>232978.2192</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>303219.7842</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>17083.27</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="3" t="n">
         <v>4776149.1648</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <v>3592921.854</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="n">
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
         <v>8922352.29220001</v>
       </c>
     </row>
@@ -567,25 +572,25 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>221555.6416</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <v>304927.7198</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="3" t="n">
         <v>15998.75</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="3" t="n">
         <v>4515511.07279999</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="3" t="n">
         <v>3532309.7119</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="n">
+      <c r="H14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
         <v>8590302.89609999</v>
       </c>
     </row>
@@ -596,25 +601,25 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="3" t="n">
         <v>227177.973</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="3" t="n">
         <v>289946.7989</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="3" t="n">
         <v>17983.75</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="3" t="n">
         <v>4456659.9147</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="3" t="n">
         <v>3354909.108</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="n">
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
         <v>8346677.5446</v>
       </c>
     </row>
@@ -625,25 +630,25 @@
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="3" t="n">
         <v>205852.759</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="3" t="n">
         <v>281431.0627</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="3" t="n">
         <v>23597.1</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="3" t="n">
         <v>4410020.3683</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="3" t="n">
         <v>3007390.5287</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="n">
+      <c r="H16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
         <v>7928291.8187</v>
       </c>
     </row>
@@ -654,25 +659,25 @@
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>197442.4792</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="3" t="n">
         <v>291138.1804</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="3" t="n">
         <v>22381.08</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="3" t="n">
         <v>4157904.84509999</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="3" t="n">
         <v>3312528.7222</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="n">
+      <c r="H17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="n">
         <v>7981395.3069</v>
       </c>
     </row>
@@ -683,25 +688,25 @@
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="3" t="n">
         <v>295934.242</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="3" t="n">
         <v>286831.671</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="3" t="n">
         <v>24173.956</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="3" t="n">
         <v>4073476.5765</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="3" t="n">
         <v>3208158.2914</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="n">
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
         <v>7888574.7369</v>
       </c>
     </row>
@@ -712,25 +717,25 @@
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>293837.8271</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="3" t="n">
         <v>283325.3926</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>30086.962</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="3" t="n">
         <v>4129701.2378</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="3" t="n">
         <v>3094092.3027</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="n">
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
         <v>7831043.7222</v>
       </c>
     </row>
@@ -741,25 +746,25 @@
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="3" t="n">
         <v>295995.0259</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="3" t="n">
         <v>255266.8908</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="3" t="n">
         <v>32440.066</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="3" t="n">
         <v>3802933.8563</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="3" t="n">
         <v>2874124.2292</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="n">
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
         <v>7260760.0682</v>
       </c>
     </row>
@@ -770,25 +775,25 @@
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="3" t="n">
         <v>297914.853</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="3" t="n">
         <v>265393.1224</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="3" t="n">
         <v>32497.779</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="3" t="n">
         <v>3806805.1941</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="3" t="n">
         <v>2783821.1734</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="n">
+      <c r="H21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="n">
         <v>7186432.1219</v>
       </c>
     </row>
@@ -799,25 +804,25 @@
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="3" t="n">
         <v>340005.8901</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="3" t="n">
         <v>287867.072</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <v>35292.166</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="3" t="n">
         <v>4089964.8396</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="3" t="n">
         <v>2712186.1871</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="3" t="n">
         <v>1222369.198</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="3" t="n">
         <v>8687685.3528</v>
       </c>
     </row>
